--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_16ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_16ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2827,28 +2827,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>858.4574255987911</v>
+        <v>993.8457202583419</v>
       </c>
       <c r="AB2" t="n">
-        <v>1174.579322172979</v>
+        <v>1359.82355983619</v>
       </c>
       <c r="AC2" t="n">
-        <v>1062.479120197222</v>
+        <v>1230.043907809776</v>
       </c>
       <c r="AD2" t="n">
-        <v>858457.4255987911</v>
+        <v>993845.7202583419</v>
       </c>
       <c r="AE2" t="n">
-        <v>1174579.322172979</v>
+        <v>1359823.55983619</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.909270121632427e-07</v>
+        <v>1.337101356855639e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.61631944444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>1062479.120197222</v>
+        <v>1230043.907809776</v>
       </c>
     </row>
     <row r="3">
@@ -2933,28 +2933,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>604.3767002644373</v>
+        <v>718.7653448056833</v>
       </c>
       <c r="AB3" t="n">
-        <v>826.9348645200242</v>
+        <v>983.4464544521918</v>
       </c>
       <c r="AC3" t="n">
-        <v>748.013361660604</v>
+        <v>889.5877051150417</v>
       </c>
       <c r="AD3" t="n">
-        <v>604376.7002644374</v>
+        <v>718765.3448056832</v>
       </c>
       <c r="AE3" t="n">
-        <v>826934.8645200243</v>
+        <v>983446.4544521918</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.014772077727519e-06</v>
+        <v>1.715522546533833e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.96527777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>748013.361660604</v>
+        <v>889587.7051150417</v>
       </c>
     </row>
     <row r="4">
@@ -3039,28 +3039,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>540.8893285032494</v>
+        <v>634.5344349984564</v>
       </c>
       <c r="AB4" t="n">
-        <v>740.0686416112</v>
+        <v>868.1980076484658</v>
       </c>
       <c r="AC4" t="n">
-        <v>669.4375291486884</v>
+        <v>785.3384083220524</v>
       </c>
       <c r="AD4" t="n">
-        <v>540889.3285032494</v>
+        <v>634534.4349984564</v>
       </c>
       <c r="AE4" t="n">
-        <v>740068.6416111999</v>
+        <v>868198.0076484658</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.102862930432376e-06</v>
+        <v>1.864444503764855e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.36805555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>669437.5291486884</v>
+        <v>785338.4083220523</v>
       </c>
     </row>
     <row r="5">
@@ -3145,28 +3145,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>500.0301696470033</v>
+        <v>593.7605274882308</v>
       </c>
       <c r="AB5" t="n">
-        <v>684.1633378852149</v>
+        <v>812.4093485751299</v>
       </c>
       <c r="AC5" t="n">
-        <v>618.8677491467247</v>
+        <v>734.8741405708009</v>
       </c>
       <c r="AD5" t="n">
-        <v>500030.1696470033</v>
+        <v>593760.5274882307</v>
       </c>
       <c r="AE5" t="n">
-        <v>684163.3378852149</v>
+        <v>812409.3485751299</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.153910809305063e-06</v>
+        <v>1.950743475800955e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.56076388888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>618867.7491467247</v>
+        <v>734874.140570801</v>
       </c>
     </row>
     <row r="6">
@@ -3251,28 +3251,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>482.2072671436381</v>
+        <v>575.7670327842734</v>
       </c>
       <c r="AB6" t="n">
-        <v>659.7772563891458</v>
+        <v>787.7898553042141</v>
       </c>
       <c r="AC6" t="n">
-        <v>596.8090410425602</v>
+        <v>712.6042971839854</v>
       </c>
       <c r="AD6" t="n">
-        <v>482207.2671436381</v>
+        <v>575767.0327842734</v>
       </c>
       <c r="AE6" t="n">
-        <v>659777.2563891459</v>
+        <v>787789.8553042142</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.17790587994115e-06</v>
+        <v>1.99130833325551e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.20486111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>596809.0410425602</v>
+        <v>712604.2971839854</v>
       </c>
     </row>
     <row r="7">
@@ -3357,28 +3357,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>454.9494508359508</v>
+        <v>548.5944678226067</v>
       </c>
       <c r="AB7" t="n">
-        <v>622.4819095869829</v>
+        <v>750.6111531547004</v>
       </c>
       <c r="AC7" t="n">
-        <v>563.0731097948477</v>
+        <v>678.9738781869852</v>
       </c>
       <c r="AD7" t="n">
-        <v>454949.4508359508</v>
+        <v>548594.4678226067</v>
       </c>
       <c r="AE7" t="n">
-        <v>622481.9095869828</v>
+        <v>750611.1531547004</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.200173678955574e-06</v>
+        <v>2.028953152332987e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.88368055555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>563073.1097948477</v>
+        <v>678973.8781869852</v>
       </c>
     </row>
     <row r="8">
@@ -3463,28 +3463,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>439.9645397634687</v>
+        <v>533.6095567501245</v>
       </c>
       <c r="AB8" t="n">
-        <v>601.9788931699934</v>
+        <v>730.108136737711</v>
       </c>
       <c r="AC8" t="n">
-        <v>544.5268724885315</v>
+        <v>660.4276408806689</v>
       </c>
       <c r="AD8" t="n">
-        <v>439964.5397634687</v>
+        <v>533609.5567501246</v>
       </c>
       <c r="AE8" t="n">
-        <v>601978.8931699934</v>
+        <v>730108.136737711</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.214482023605303e-06</v>
+        <v>2.053142118889059e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.68402777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>544526.8724885315</v>
+        <v>660427.640880669</v>
       </c>
     </row>
     <row r="9">
@@ -3569,28 +3569,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>437.2046217256845</v>
+        <v>530.8496387123403</v>
       </c>
       <c r="AB9" t="n">
-        <v>598.2026515517066</v>
+        <v>726.3318951194242</v>
       </c>
       <c r="AC9" t="n">
-        <v>541.1110300703056</v>
+        <v>657.0117984624429</v>
       </c>
       <c r="AD9" t="n">
-        <v>437204.6217256845</v>
+        <v>530849.6387123403</v>
       </c>
       <c r="AE9" t="n">
-        <v>598202.6515517066</v>
+        <v>726331.8951194242</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.218426738525048e-06</v>
+        <v>2.059810855182658e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.63194444444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>541111.0300703056</v>
+        <v>657011.7984624429</v>
       </c>
     </row>
   </sheetData>
@@ -3866,28 +3866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>681.4577269685102</v>
+        <v>802.4592002402601</v>
       </c>
       <c r="AB2" t="n">
-        <v>932.4005258314342</v>
+        <v>1097.960079770091</v>
       </c>
       <c r="AC2" t="n">
-        <v>843.4135282784383</v>
+        <v>993.1723107534833</v>
       </c>
       <c r="AD2" t="n">
-        <v>681457.7269685102</v>
+        <v>802459.2002402601</v>
       </c>
       <c r="AE2" t="n">
-        <v>932400.5258314342</v>
+        <v>1097960.079770091</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.132917030959358e-07</v>
+        <v>1.581630358630462e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.95138888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>843413.5282784384</v>
+        <v>993172.3107534833</v>
       </c>
     </row>
     <row r="3">
@@ -3972,28 +3972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>511.3932675724103</v>
+        <v>612.2136051564401</v>
       </c>
       <c r="AB3" t="n">
-        <v>699.7108297712567</v>
+        <v>837.6576635331048</v>
       </c>
       <c r="AC3" t="n">
-        <v>632.9314102282049</v>
+        <v>757.7127917854192</v>
       </c>
       <c r="AD3" t="n">
-        <v>511393.2675724103</v>
+        <v>612213.6051564401</v>
       </c>
       <c r="AE3" t="n">
-        <v>699710.8297712568</v>
+        <v>837657.6635331048</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.11875396419747e-06</v>
+        <v>1.937448054783242e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.73263888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>632931.4102282049</v>
+        <v>757712.7917854192</v>
       </c>
     </row>
     <row r="4">
@@ -4078,28 +4078,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>459.3201967604003</v>
+        <v>549.9647151545494</v>
       </c>
       <c r="AB4" t="n">
-        <v>628.462156984516</v>
+        <v>752.4859860053102</v>
       </c>
       <c r="AC4" t="n">
-        <v>568.4826107740902</v>
+        <v>680.669779621677</v>
       </c>
       <c r="AD4" t="n">
-        <v>459320.1967604003</v>
+        <v>549964.7151545493</v>
       </c>
       <c r="AE4" t="n">
-        <v>628462.1569845161</v>
+        <v>752485.9860053102</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.19911339596923e-06</v>
+        <v>2.076613796092027e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.48263888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>568482.6107740902</v>
+        <v>680669.779621677</v>
       </c>
     </row>
     <row r="5">
@@ -4184,28 +4184,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>424.087612743869</v>
+        <v>514.8173824840386</v>
       </c>
       <c r="AB5" t="n">
-        <v>580.2553811811919</v>
+        <v>704.3958548546353</v>
       </c>
       <c r="AC5" t="n">
-        <v>524.8766219948005</v>
+        <v>637.1693030930996</v>
       </c>
       <c r="AD5" t="n">
-        <v>424087.612743869</v>
+        <v>514817.3824840386</v>
       </c>
       <c r="AE5" t="n">
-        <v>580255.3811811919</v>
+        <v>704395.8548546353</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.239824334060331e-06</v>
+        <v>2.147116632584398e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.90972222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>524876.6219948005</v>
+        <v>637169.3030930996</v>
       </c>
     </row>
     <row r="6">
@@ -4290,28 +4290,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>405.8016932165732</v>
+        <v>496.5314629567428</v>
       </c>
       <c r="AB6" t="n">
-        <v>555.2357793661114</v>
+        <v>679.376253039555</v>
       </c>
       <c r="AC6" t="n">
-        <v>502.2448558617197</v>
+        <v>614.5375369600188</v>
       </c>
       <c r="AD6" t="n">
-        <v>405801.6932165732</v>
+        <v>496531.4629567428</v>
       </c>
       <c r="AE6" t="n">
-        <v>555235.7793661114</v>
+        <v>679376.2530395549</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.263053232306856e-06</v>
+        <v>2.187344229681469e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.59722222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>502244.8558617197</v>
+        <v>614537.5369600188</v>
       </c>
     </row>
     <row r="7">
@@ -4396,28 +4396,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>404.1907097299932</v>
+        <v>494.9204794701627</v>
       </c>
       <c r="AB7" t="n">
-        <v>553.0315606881971</v>
+        <v>677.1720343616407</v>
       </c>
       <c r="AC7" t="n">
-        <v>500.2510047207852</v>
+        <v>612.5436858190843</v>
       </c>
       <c r="AD7" t="n">
-        <v>404190.7097299931</v>
+        <v>494920.4794701627</v>
       </c>
       <c r="AE7" t="n">
-        <v>553031.5606881971</v>
+        <v>677172.0343616407</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.265757636260713e-06</v>
+        <v>2.192027692129361e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.5625</v>
       </c>
       <c r="AH7" t="n">
-        <v>500251.0047207852</v>
+        <v>612543.6858190843</v>
       </c>
     </row>
   </sheetData>
@@ -4693,28 +4693,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>364.4118949289993</v>
+        <v>455.3948693470098</v>
       </c>
       <c r="AB2" t="n">
-        <v>498.6044313600243</v>
+        <v>623.0913508442915</v>
       </c>
       <c r="AC2" t="n">
-        <v>451.0183242267374</v>
+        <v>563.624386833915</v>
       </c>
       <c r="AD2" t="n">
-        <v>364411.8949289994</v>
+        <v>455394.8693470097</v>
       </c>
       <c r="AE2" t="n">
-        <v>498604.4313600243</v>
+        <v>623091.3508442915</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.302820141414809e-06</v>
+        <v>2.465216061057668e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.95138888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>451018.3242267374</v>
+        <v>563624.386833915</v>
       </c>
     </row>
     <row r="3">
@@ -4799,28 +4799,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>322.725621462201</v>
+        <v>404.6785711220676</v>
       </c>
       <c r="AB3" t="n">
-        <v>441.5674329341605</v>
+        <v>553.6990741677591</v>
       </c>
       <c r="AC3" t="n">
-        <v>399.4248568787079</v>
+        <v>500.8548116507189</v>
       </c>
       <c r="AD3" t="n">
-        <v>322725.621462201</v>
+        <v>404678.5711220676</v>
       </c>
       <c r="AE3" t="n">
-        <v>441567.4329341605</v>
+        <v>553699.0741677592</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.391411803255272e-06</v>
+        <v>2.63285054927469e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.80555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>399424.8568787079</v>
+        <v>500854.8116507189</v>
       </c>
     </row>
   </sheetData>
@@ -5096,28 +5096,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>468.2960822096716</v>
+        <v>563.091797798804</v>
       </c>
       <c r="AB2" t="n">
-        <v>640.7433594443277</v>
+        <v>770.4470396051931</v>
       </c>
       <c r="AC2" t="n">
-        <v>579.5917125079134</v>
+        <v>696.9166554744843</v>
       </c>
       <c r="AD2" t="n">
-        <v>468296.0822096716</v>
+        <v>563091.797798804</v>
       </c>
       <c r="AE2" t="n">
-        <v>640743.3594443277</v>
+        <v>770447.0396051932</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.147591489740656e-06</v>
+        <v>2.090662466378076e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.49652777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>579591.7125079134</v>
+        <v>696916.6554744843</v>
       </c>
     </row>
     <row r="3">
@@ -5202,28 +5202,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>379.4115597527739</v>
+        <v>455.3846954931046</v>
       </c>
       <c r="AB3" t="n">
-        <v>519.1276345104216</v>
+        <v>623.0774305285399</v>
       </c>
       <c r="AC3" t="n">
-        <v>469.5828216729573</v>
+        <v>563.6117950535614</v>
       </c>
       <c r="AD3" t="n">
-        <v>379411.559752774</v>
+        <v>455384.6954931046</v>
       </c>
       <c r="AE3" t="n">
-        <v>519127.6345104216</v>
+        <v>623077.4305285399</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.312122306187156e-06</v>
+        <v>2.390401881999721e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.04861111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>469582.8216729573</v>
+        <v>563611.7950535615</v>
       </c>
     </row>
     <row r="4">
@@ -5308,28 +5308,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>351.1803430920668</v>
+        <v>436.5646792482473</v>
       </c>
       <c r="AB4" t="n">
-        <v>480.500438401864</v>
+        <v>597.3270540218076</v>
       </c>
       <c r="AC4" t="n">
-        <v>434.6421509473902</v>
+        <v>540.3189983397513</v>
       </c>
       <c r="AD4" t="n">
-        <v>351180.3430920668</v>
+        <v>436564.6792482473</v>
       </c>
       <c r="AE4" t="n">
-        <v>480500.438401864</v>
+        <v>597327.0540218076</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.349291887468035e-06</v>
+        <v>2.458116786797844e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.57986111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>434642.1509473902</v>
+        <v>540318.9983397513</v>
       </c>
     </row>
   </sheetData>
@@ -5605,28 +5605,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>310.0409855517567</v>
+        <v>389.0942430547704</v>
       </c>
       <c r="AB2" t="n">
-        <v>424.2117544748493</v>
+        <v>532.3759089740523</v>
       </c>
       <c r="AC2" t="n">
-        <v>383.7255800127057</v>
+        <v>481.566699415849</v>
       </c>
       <c r="AD2" t="n">
-        <v>310040.9855517567</v>
+        <v>389094.2430547704</v>
       </c>
       <c r="AE2" t="n">
-        <v>424211.7544748493</v>
+        <v>532375.9089740523</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.410650490926034e-06</v>
+        <v>2.764420449967131e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.22222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>383725.5800127057</v>
+        <v>481566.6994158491</v>
       </c>
     </row>
     <row r="3">
@@ -5711,28 +5711,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>309.6753347595772</v>
+        <v>380.0966240046668</v>
       </c>
       <c r="AB3" t="n">
-        <v>423.7114549296148</v>
+        <v>520.0649696427632</v>
       </c>
       <c r="AC3" t="n">
-        <v>383.2730283538936</v>
+        <v>470.4306988558263</v>
       </c>
       <c r="AD3" t="n">
-        <v>309675.3347595772</v>
+        <v>380096.6240046668</v>
       </c>
       <c r="AE3" t="n">
-        <v>423711.4549296148</v>
+        <v>520064.9696427633</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.417198640397898e-06</v>
+        <v>2.777252713115164e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.14409722222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>383273.0283538935</v>
+        <v>470430.6988558263</v>
       </c>
     </row>
   </sheetData>
@@ -6008,28 +6008,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>725.3879975051393</v>
+        <v>847.4964753853325</v>
       </c>
       <c r="AB2" t="n">
-        <v>992.5078600464046</v>
+        <v>1159.58206652793</v>
       </c>
       <c r="AC2" t="n">
-        <v>897.7843028771055</v>
+        <v>1048.913181582156</v>
       </c>
       <c r="AD2" t="n">
-        <v>725387.9975051393</v>
+        <v>847496.4753853325</v>
       </c>
       <c r="AE2" t="n">
-        <v>992507.8600464046</v>
+        <v>1159582.06652793</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.815409842608139e-07</v>
+        <v>1.516674696876052e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.56770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>897784.3028771054</v>
+        <v>1048913.181582156</v>
       </c>
     </row>
     <row r="3">
@@ -6114,28 +6114,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>540.9186313070636</v>
+        <v>632.5000792257594</v>
       </c>
       <c r="AB3" t="n">
-        <v>740.108735000127</v>
+        <v>865.4145123308194</v>
       </c>
       <c r="AC3" t="n">
-        <v>669.4737960808475</v>
+        <v>782.8205658908619</v>
       </c>
       <c r="AD3" t="n">
-        <v>540918.6313070636</v>
+        <v>632500.0792257594</v>
       </c>
       <c r="AE3" t="n">
-        <v>740108.735000127</v>
+        <v>865414.5123308194</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.093173994516321e-06</v>
+        <v>1.880785313862719e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.00173611111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>669473.7960808475</v>
+        <v>782820.5658908619</v>
       </c>
     </row>
     <row r="4">
@@ -6220,28 +6220,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>478.3538407339073</v>
+        <v>569.9351991440521</v>
       </c>
       <c r="AB4" t="n">
-        <v>654.504828374177</v>
+        <v>779.8104832353212</v>
       </c>
       <c r="AC4" t="n">
-        <v>592.0398061574409</v>
+        <v>705.3864651862285</v>
       </c>
       <c r="AD4" t="n">
-        <v>478353.8407339073</v>
+        <v>569935.1991440521</v>
       </c>
       <c r="AE4" t="n">
-        <v>654504.828374177</v>
+        <v>779810.4832353211</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.17087326908661e-06</v>
+        <v>2.014465455580913e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.74305555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>592039.8061574409</v>
+        <v>705386.4651862285</v>
       </c>
     </row>
     <row r="5">
@@ -6326,28 +6326,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>452.6840986055376</v>
+        <v>534.0898400342173</v>
       </c>
       <c r="AB5" t="n">
-        <v>619.3823547250447</v>
+        <v>730.7652815156099</v>
       </c>
       <c r="AC5" t="n">
-        <v>560.2693720986803</v>
+        <v>661.0220686832737</v>
       </c>
       <c r="AD5" t="n">
-        <v>452684.0986055376</v>
+        <v>534089.8400342173</v>
       </c>
       <c r="AE5" t="n">
-        <v>619382.3547250447</v>
+        <v>730765.2815156099</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.214329346271594e-06</v>
+        <v>2.089230819720192e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.109375</v>
       </c>
       <c r="AH5" t="n">
-        <v>560269.3720986802</v>
+        <v>661022.0686832737</v>
       </c>
     </row>
     <row r="6">
@@ -6432,28 +6432,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>421.7540055977962</v>
+        <v>513.2500231533693</v>
       </c>
       <c r="AB6" t="n">
-        <v>577.0624369324537</v>
+        <v>702.2513246714001</v>
       </c>
       <c r="AC6" t="n">
-        <v>521.9884078638364</v>
+        <v>635.2294438606855</v>
       </c>
       <c r="AD6" t="n">
-        <v>421754.0055977962</v>
+        <v>513250.0231533693</v>
       </c>
       <c r="AE6" t="n">
-        <v>577062.4369324537</v>
+        <v>702251.3246714001</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.242183351691926e-06</v>
+        <v>2.137153112593606e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.71875</v>
       </c>
       <c r="AH6" t="n">
-        <v>521988.4078638364</v>
+        <v>635229.4438606855</v>
       </c>
     </row>
     <row r="7">
@@ -6538,28 +6538,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>412.9915304334787</v>
+        <v>504.4875479890517</v>
       </c>
       <c r="AB7" t="n">
-        <v>565.0732318395129</v>
+        <v>690.2621195784595</v>
       </c>
       <c r="AC7" t="n">
-        <v>511.143435678011</v>
+        <v>624.38447167486</v>
       </c>
       <c r="AD7" t="n">
-        <v>412991.5304334786</v>
+        <v>504487.5479890517</v>
       </c>
       <c r="AE7" t="n">
-        <v>565073.2318395129</v>
+        <v>690262.1195784595</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.251874822650031e-06</v>
+        <v>2.153827106248016e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.58854166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>511143.435678011</v>
+        <v>624384.47167486</v>
       </c>
     </row>
   </sheetData>
@@ -6835,28 +6835,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>295.727630934843</v>
+        <v>373.1143180805423</v>
       </c>
       <c r="AB2" t="n">
-        <v>404.6275912273485</v>
+        <v>510.511470639779</v>
       </c>
       <c r="AC2" t="n">
-        <v>366.0105018190006</v>
+        <v>461.7889723892667</v>
       </c>
       <c r="AD2" t="n">
-        <v>295727.630934843</v>
+        <v>373114.3180805423</v>
       </c>
       <c r="AE2" t="n">
-        <v>404627.5912273485</v>
+        <v>510511.4706397789</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.421325163339217e-06</v>
+        <v>2.849274237219365e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.49131944444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>366010.5018190006</v>
+        <v>461788.9723892667</v>
       </c>
     </row>
   </sheetData>
@@ -7132,28 +7132,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>576.6921062196943</v>
+        <v>684.4782832065667</v>
       </c>
       <c r="AB2" t="n">
-        <v>789.0555815899168</v>
+        <v>936.5333841338795</v>
       </c>
       <c r="AC2" t="n">
-        <v>713.7492243294387</v>
+        <v>847.1519523850013</v>
       </c>
       <c r="AD2" t="n">
-        <v>576692.1062196944</v>
+        <v>684478.2832065667</v>
       </c>
       <c r="AE2" t="n">
-        <v>789055.5815899167</v>
+        <v>936533.3841338796</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.019788039415899e-06</v>
+        <v>1.806120395093293e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.18055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>713749.2243294386</v>
+        <v>847151.9523850014</v>
       </c>
     </row>
     <row r="3">
@@ -7238,28 +7238,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>441.5761483190462</v>
+        <v>539.5479840530525</v>
       </c>
       <c r="AB3" t="n">
-        <v>604.1839670948865</v>
+        <v>738.2333549584998</v>
       </c>
       <c r="AC3" t="n">
-        <v>546.5214972528734</v>
+        <v>667.7773996782811</v>
       </c>
       <c r="AD3" t="n">
-        <v>441576.1483190462</v>
+        <v>539547.9840530525</v>
       </c>
       <c r="AE3" t="n">
-        <v>604183.9670948865</v>
+        <v>738233.3549584998</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.20764438558041e-06</v>
+        <v>2.138827943173346e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.88194444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>546521.4972528734</v>
+        <v>667777.399678281</v>
       </c>
     </row>
     <row r="4">
@@ -7344,28 +7344,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>393.2914653556043</v>
+        <v>481.5343901998672</v>
       </c>
       <c r="AB4" t="n">
-        <v>538.1187336944325</v>
+        <v>658.8565964694428</v>
       </c>
       <c r="AC4" t="n">
-        <v>486.7614370050214</v>
+        <v>595.9762476134393</v>
       </c>
       <c r="AD4" t="n">
-        <v>393291.4653556043</v>
+        <v>481534.3901998672</v>
       </c>
       <c r="AE4" t="n">
-        <v>538118.7336944325</v>
+        <v>658856.5964694428</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.28494138829967e-06</v>
+        <v>2.275726678689798e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.80555555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>486761.4370050214</v>
+        <v>595976.2476134393</v>
       </c>
     </row>
     <row r="5">
@@ -7450,28 +7450,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>378.3835603111677</v>
+        <v>466.6264851554306</v>
       </c>
       <c r="AB5" t="n">
-        <v>517.7210803222813</v>
+        <v>638.4589430972916</v>
       </c>
       <c r="AC5" t="n">
-        <v>468.3105070424219</v>
+        <v>577.52531765084</v>
       </c>
       <c r="AD5" t="n">
-        <v>378383.5603111677</v>
+        <v>466626.4851554306</v>
       </c>
       <c r="AE5" t="n">
-        <v>517721.0803222813</v>
+        <v>638458.9430972916</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.304545520305714e-06</v>
+        <v>2.310447053194775e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.55381944444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>468310.507042422</v>
+        <v>577525.3176508399</v>
       </c>
     </row>
     <row r="6">
@@ -7556,28 +7556,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>379.5709837758484</v>
+        <v>467.8139086201114</v>
       </c>
       <c r="AB6" t="n">
-        <v>519.3457654920837</v>
+        <v>640.0836282670939</v>
       </c>
       <c r="AC6" t="n">
-        <v>469.7801345398782</v>
+        <v>578.9949451482964</v>
       </c>
       <c r="AD6" t="n">
-        <v>379570.9837758485</v>
+        <v>467813.9086201114</v>
       </c>
       <c r="AE6" t="n">
-        <v>519345.7654920837</v>
+        <v>640083.6282670939</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.304570398645823e-06</v>
+        <v>2.310491114583741e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.55381944444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>469780.1345398782</v>
+        <v>578994.9451482964</v>
       </c>
     </row>
   </sheetData>
@@ -7853,28 +7853,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>648.2391991663712</v>
+        <v>758.1780564524328</v>
       </c>
       <c r="AB2" t="n">
-        <v>886.9494705945307</v>
+        <v>1037.372665293396</v>
       </c>
       <c r="AC2" t="n">
-        <v>802.3002579623882</v>
+        <v>938.3672740794739</v>
       </c>
       <c r="AD2" t="n">
-        <v>648239.1991663713</v>
+        <v>758178.0564524328</v>
       </c>
       <c r="AE2" t="n">
-        <v>886949.4705945307</v>
+        <v>1037372.665293396</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.480242675028588e-07</v>
+        <v>1.653271541800235e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.31770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>802300.2579623882</v>
+        <v>938367.2740794739</v>
       </c>
     </row>
     <row r="3">
@@ -7959,28 +7959,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>491.561801223977</v>
+        <v>581.4962751223871</v>
       </c>
       <c r="AB3" t="n">
-        <v>672.5765426107827</v>
+        <v>795.6288574275546</v>
       </c>
       <c r="AC3" t="n">
-        <v>608.3867813511151</v>
+        <v>719.6951559467827</v>
       </c>
       <c r="AD3" t="n">
-        <v>491561.801223977</v>
+        <v>581496.2751223871</v>
       </c>
       <c r="AE3" t="n">
-        <v>672576.5426107827</v>
+        <v>795628.8574275547</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.146711550348066e-06</v>
+        <v>1.999764813866823e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.45486111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>608386.7813511151</v>
+        <v>719695.1559467828</v>
       </c>
     </row>
     <row r="4">
@@ -8065,28 +8065,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>442.0127527475069</v>
+        <v>531.8618857913455</v>
       </c>
       <c r="AB4" t="n">
-        <v>604.7813485355342</v>
+        <v>727.7168962301085</v>
       </c>
       <c r="AC4" t="n">
-        <v>547.0618654472557</v>
+        <v>658.2646170109848</v>
       </c>
       <c r="AD4" t="n">
-        <v>442012.7527475069</v>
+        <v>531861.8857913455</v>
       </c>
       <c r="AE4" t="n">
-        <v>604781.3485355342</v>
+        <v>727716.8962301086</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.223958513829413e-06</v>
+        <v>2.134476773034902e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.29166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>547061.8654472558</v>
+        <v>658264.6170109848</v>
       </c>
     </row>
     <row r="5">
@@ -8171,28 +8171,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>406.373134588019</v>
+        <v>496.3075189778781</v>
       </c>
       <c r="AB5" t="n">
-        <v>556.0176506607376</v>
+        <v>679.0698430079613</v>
       </c>
       <c r="AC5" t="n">
-        <v>502.9521064573499</v>
+        <v>614.2603702717912</v>
       </c>
       <c r="AD5" t="n">
-        <v>406373.134588019</v>
+        <v>496307.5189778781</v>
       </c>
       <c r="AE5" t="n">
-        <v>556017.6506607375</v>
+        <v>679069.8430079613</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.265129268427077e-06</v>
+        <v>2.206274974055693e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.72743055555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>502952.10645735</v>
+        <v>614260.3702717912</v>
       </c>
     </row>
     <row r="6">
@@ -8277,28 +8277,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>395.2833571846037</v>
+        <v>485.2177415744629</v>
       </c>
       <c r="AB6" t="n">
-        <v>540.8441279709351</v>
+        <v>663.8963203181587</v>
       </c>
       <c r="AC6" t="n">
-        <v>489.2267234768893</v>
+        <v>600.5349872913305</v>
       </c>
       <c r="AD6" t="n">
-        <v>395283.3571846037</v>
+        <v>485217.7415744629</v>
       </c>
       <c r="AE6" t="n">
-        <v>540844.1279709351</v>
+        <v>663896.3203181587</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.275562118023169e-06</v>
+        <v>2.224468952763152e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.58854166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>489226.7234768893</v>
+        <v>600534.9872913305</v>
       </c>
     </row>
   </sheetData>
@@ -8574,28 +8574,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>808.0000741785174</v>
+        <v>942.3012625339874</v>
       </c>
       <c r="AB2" t="n">
-        <v>1105.541347938521</v>
+        <v>1289.298158796743</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000.030033328295</v>
+        <v>1166.249352062512</v>
       </c>
       <c r="AD2" t="n">
-        <v>808000.0741785173</v>
+        <v>942301.2625339874</v>
       </c>
       <c r="AE2" t="n">
-        <v>1105541.347938521</v>
+        <v>1289298.158796743</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.206131156171658e-07</v>
+        <v>1.394987909283513e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.88715277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000030.033328295</v>
+        <v>1166249.352062512</v>
       </c>
     </row>
     <row r="3">
@@ -8680,28 +8680,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>583.5229590790763</v>
+        <v>686.8972123175698</v>
       </c>
       <c r="AB3" t="n">
-        <v>798.4018558280825</v>
+        <v>939.8430696591746</v>
       </c>
       <c r="AC3" t="n">
-        <v>722.203503271892</v>
+        <v>850.1457661689354</v>
       </c>
       <c r="AD3" t="n">
-        <v>583522.9590790763</v>
+        <v>686897.2123175699</v>
       </c>
       <c r="AE3" t="n">
-        <v>798401.8558280825</v>
+        <v>939843.0696591747</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.039024479579381e-06</v>
+        <v>1.766272752504994e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>722203.5032718921</v>
+        <v>850145.7661689355</v>
       </c>
     </row>
     <row r="4">
@@ -8786,28 +8786,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>523.0395593938633</v>
+        <v>615.991135962487</v>
       </c>
       <c r="AB4" t="n">
-        <v>715.645800039502</v>
+        <v>842.8262478348356</v>
       </c>
       <c r="AC4" t="n">
-        <v>647.3455692989198</v>
+        <v>762.3880936555465</v>
       </c>
       <c r="AD4" t="n">
-        <v>523039.5593938633</v>
+        <v>615991.135962487</v>
       </c>
       <c r="AE4" t="n">
-        <v>715645.800039502</v>
+        <v>842826.2478348357</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.125019689671151e-06</v>
+        <v>1.912458910209887e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.15104166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>647345.5692989199</v>
+        <v>762388.0936555465</v>
       </c>
     </row>
     <row r="5">
@@ -8892,28 +8892,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>479.1651269378588</v>
+        <v>572.0313626519109</v>
       </c>
       <c r="AB5" t="n">
-        <v>655.6148659498447</v>
+        <v>782.6785466229809</v>
       </c>
       <c r="AC5" t="n">
-        <v>593.0439033048344</v>
+        <v>707.9808046295223</v>
       </c>
       <c r="AD5" t="n">
-        <v>479165.1269378588</v>
+        <v>572031.3626519109</v>
       </c>
       <c r="AE5" t="n">
-        <v>655614.8659498447</v>
+        <v>782678.5466229809</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.182357672432749e-06</v>
+        <v>2.009929680750742e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.27430555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>593043.9033048344</v>
+        <v>707980.8046295223</v>
       </c>
     </row>
     <row r="6">
@@ -8998,28 +8998,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>465.0711472017804</v>
+        <v>547.7706393011264</v>
       </c>
       <c r="AB6" t="n">
-        <v>636.3308610924396</v>
+        <v>749.483954626862</v>
       </c>
       <c r="AC6" t="n">
-        <v>575.6003368057492</v>
+        <v>677.9542579046104</v>
       </c>
       <c r="AD6" t="n">
-        <v>465071.1472017804</v>
+        <v>547770.6393011264</v>
       </c>
       <c r="AE6" t="n">
-        <v>636330.8610924396</v>
+        <v>749483.954626862</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.200709591412662e-06</v>
+        <v>2.04112672671786e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.01388888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>575600.3368057492</v>
+        <v>677954.2579046104</v>
       </c>
     </row>
     <row r="7">
@@ -9104,28 +9104,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>438.0058146940199</v>
+        <v>530.9573017540926</v>
       </c>
       <c r="AB7" t="n">
-        <v>599.2988791171224</v>
+        <v>726.4792044429079</v>
       </c>
       <c r="AC7" t="n">
-        <v>542.1026352154431</v>
+        <v>657.1450487908432</v>
       </c>
       <c r="AD7" t="n">
-        <v>438005.8146940199</v>
+        <v>530957.3017540926</v>
       </c>
       <c r="AE7" t="n">
-        <v>599298.8791171224</v>
+        <v>726479.2044429078</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.21852036406368e-06</v>
+        <v>2.071403859791075e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.76215277777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>542102.6352154431</v>
+        <v>657145.0487908432</v>
       </c>
     </row>
     <row r="8">
@@ -9210,28 +9210,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>429.839342737507</v>
+        <v>522.7908297975796</v>
       </c>
       <c r="AB8" t="n">
-        <v>588.1251519069059</v>
+        <v>715.3054772326914</v>
       </c>
       <c r="AC8" t="n">
-        <v>531.995312847745</v>
+        <v>647.037726423145</v>
       </c>
       <c r="AD8" t="n">
-        <v>429839.342737507</v>
+        <v>522790.8297975796</v>
       </c>
       <c r="AE8" t="n">
-        <v>588125.1519069059</v>
+        <v>715305.4772326914</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.226849311908409e-06</v>
+        <v>2.085562519114613e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.64930555555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>531995.312847745</v>
+        <v>647037.726423145</v>
       </c>
     </row>
     <row r="9">
@@ -9316,28 +9316,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>431.3365963069151</v>
+        <v>524.2880833669877</v>
       </c>
       <c r="AB9" t="n">
-        <v>590.1737602947358</v>
+        <v>717.3540856205211</v>
       </c>
       <c r="AC9" t="n">
-        <v>533.8484049262803</v>
+        <v>648.8908185016804</v>
       </c>
       <c r="AD9" t="n">
-        <v>431336.596306915</v>
+        <v>524288.0833669878</v>
       </c>
       <c r="AE9" t="n">
-        <v>590173.7602947358</v>
+        <v>717354.0856205211</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.226566974693334e-06</v>
+        <v>2.085082564561272e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.64930555555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>533848.4049262803</v>
+        <v>648890.8185016804</v>
       </c>
     </row>
   </sheetData>
@@ -9613,28 +9613,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>507.540892560571</v>
+        <v>603.5371048260904</v>
       </c>
       <c r="AB2" t="n">
-        <v>694.4398403252676</v>
+        <v>825.7860930009413</v>
       </c>
       <c r="AC2" t="n">
-        <v>628.1634766170607</v>
+        <v>746.9742272829914</v>
       </c>
       <c r="AD2" t="n">
-        <v>507540.892560571</v>
+        <v>603537.1048260904</v>
       </c>
       <c r="AE2" t="n">
-        <v>694439.8403252676</v>
+        <v>825786.0930009412</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.101411662533319e-06</v>
+        <v>1.986105865540029e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.06076388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>628163.4766170607</v>
+        <v>746974.2272829914</v>
       </c>
     </row>
     <row r="3">
@@ -9719,28 +9719,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>400.6818039135525</v>
+        <v>486.9845289633463</v>
       </c>
       <c r="AB3" t="n">
-        <v>548.2305209481439</v>
+        <v>666.3137167687875</v>
       </c>
       <c r="AC3" t="n">
-        <v>495.908169475221</v>
+        <v>602.7216708175487</v>
       </c>
       <c r="AD3" t="n">
-        <v>400681.8039135525</v>
+        <v>486984.5289633463</v>
       </c>
       <c r="AE3" t="n">
-        <v>548230.5209481439</v>
+        <v>666313.7167687875</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.275999321550121e-06</v>
+        <v>2.300928729160909e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.31770833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>495908.169475221</v>
+        <v>602721.6708175486</v>
       </c>
     </row>
     <row r="4">
@@ -9825,28 +9825,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>361.1855434852704</v>
+        <v>447.5735198810848</v>
       </c>
       <c r="AB4" t="n">
-        <v>494.1899949781344</v>
+        <v>612.3898354514273</v>
       </c>
       <c r="AC4" t="n">
-        <v>447.0251954574346</v>
+        <v>553.9442090504745</v>
       </c>
       <c r="AD4" t="n">
-        <v>361185.5434852705</v>
+        <v>447573.5198810848</v>
       </c>
       <c r="AE4" t="n">
-        <v>494189.9949781344</v>
+        <v>612389.8354514273</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.332786763927506e-06</v>
+        <v>2.403329925944432e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.57986111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>447025.1954574346</v>
+        <v>553944.2090504745</v>
       </c>
     </row>
     <row r="5">
@@ -9931,28 +9931,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>361.9786080324546</v>
+        <v>448.3665844282689</v>
       </c>
       <c r="AB5" t="n">
-        <v>495.2751008791303</v>
+        <v>613.4749413524231</v>
       </c>
       <c r="AC5" t="n">
-        <v>448.0067403741951</v>
+        <v>554.9257539672351</v>
       </c>
       <c r="AD5" t="n">
-        <v>361978.6080324546</v>
+        <v>448366.584428269</v>
       </c>
       <c r="AE5" t="n">
-        <v>495275.1008791302</v>
+        <v>613474.9413524232</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.331055905083194e-06</v>
+        <v>2.400208777857798e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.59722222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>448006.7403741952</v>
+        <v>554925.7539672351</v>
       </c>
     </row>
   </sheetData>
@@ -10228,28 +10228,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>402.4199016946234</v>
+        <v>485.600134843889</v>
       </c>
       <c r="AB2" t="n">
-        <v>550.6086630116673</v>
+        <v>664.4195276593879</v>
       </c>
       <c r="AC2" t="n">
-        <v>498.0593449979451</v>
+        <v>601.0082604582391</v>
       </c>
       <c r="AD2" t="n">
-        <v>402419.9016946234</v>
+        <v>485600.134843889</v>
       </c>
       <c r="AE2" t="n">
-        <v>550608.6630116673</v>
+        <v>664419.5276593879</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.246575869785583e-06</v>
+        <v>2.325712114095892e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.46354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>498059.3449979451</v>
+        <v>601008.2604582391</v>
       </c>
     </row>
     <row r="3">
@@ -10334,28 +10334,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>332.2246677383914</v>
+        <v>415.404811379106</v>
       </c>
       <c r="AB3" t="n">
-        <v>454.5644471175895</v>
+        <v>568.3751892957617</v>
       </c>
       <c r="AC3" t="n">
-        <v>411.1814542698945</v>
+        <v>514.1302589489619</v>
       </c>
       <c r="AD3" t="n">
-        <v>332224.6677383914</v>
+        <v>415404.811379106</v>
       </c>
       <c r="AE3" t="n">
-        <v>454564.4471175895</v>
+        <v>568375.1892957618</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.378140465465176e-06</v>
+        <v>2.57116959596644e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.70138888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>411181.4542698945</v>
+        <v>514130.2589489619</v>
       </c>
     </row>
     <row r="4">
@@ -10440,28 +10440,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>333.5667663120721</v>
+        <v>416.7469099527866</v>
       </c>
       <c r="AB4" t="n">
-        <v>456.4007655953098</v>
+        <v>570.211507773482</v>
       </c>
       <c r="AC4" t="n">
-        <v>412.8425170893902</v>
+        <v>515.7913217684576</v>
       </c>
       <c r="AD4" t="n">
-        <v>333566.7663120721</v>
+        <v>416746.9099527866</v>
       </c>
       <c r="AE4" t="n">
-        <v>456400.7655953098</v>
+        <v>570211.507773482</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.377875321177228e-06</v>
+        <v>2.570674921476576e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.70138888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>412842.5170893902</v>
+        <v>515791.3217684576</v>
       </c>
     </row>
   </sheetData>
@@ -18454,28 +18454,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>334.6624276006258</v>
+        <v>415.193239218468</v>
       </c>
       <c r="AB2" t="n">
-        <v>457.8998977074735</v>
+        <v>568.0857069316718</v>
       </c>
       <c r="AC2" t="n">
-        <v>414.1985741368142</v>
+        <v>513.8684043754096</v>
       </c>
       <c r="AD2" t="n">
-        <v>334662.4276006258</v>
+        <v>415193.239218468</v>
       </c>
       <c r="AE2" t="n">
-        <v>457899.8977074735</v>
+        <v>568085.7069316718</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.364869938465613e-06</v>
+        <v>2.62469550597081e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.44791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>414198.5741368142</v>
+        <v>513868.4043754096</v>
       </c>
     </row>
     <row r="3">
@@ -18560,28 +18560,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>311.8275197010102</v>
+        <v>392.4435826648729</v>
       </c>
       <c r="AB3" t="n">
-        <v>426.656169314182</v>
+        <v>536.9586231910296</v>
       </c>
       <c r="AC3" t="n">
-        <v>385.9367033305302</v>
+        <v>485.7120458198378</v>
       </c>
       <c r="AD3" t="n">
-        <v>311827.5197010102</v>
+        <v>392443.5826648729</v>
       </c>
       <c r="AE3" t="n">
-        <v>426656.169314182</v>
+        <v>536958.6231910295</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.407410697972067e-06</v>
+        <v>2.706502964066561e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.91840277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>385936.7033305303</v>
+        <v>485712.0458198378</v>
       </c>
     </row>
   </sheetData>
@@ -18857,28 +18857,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>290.0067944055628</v>
+        <v>365.5401438104659</v>
       </c>
       <c r="AB2" t="n">
-        <v>396.8000903024922</v>
+        <v>500.1481512544747</v>
       </c>
       <c r="AC2" t="n">
-        <v>358.930046596446</v>
+        <v>452.4147136610859</v>
       </c>
       <c r="AD2" t="n">
-        <v>290006.7944055628</v>
+        <v>365540.1438104659</v>
       </c>
       <c r="AE2" t="n">
-        <v>396800.0903024921</v>
+        <v>500148.1512544747</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.409753931760774e-06</v>
+        <v>2.907757502938229e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.125</v>
       </c>
       <c r="AH2" t="n">
-        <v>358930.046596446</v>
+        <v>452414.7136610859</v>
       </c>
     </row>
   </sheetData>
@@ -19154,28 +19154,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>605.6972735524615</v>
+        <v>714.7097592245227</v>
       </c>
       <c r="AB2" t="n">
-        <v>828.7417311522806</v>
+        <v>977.8974233402397</v>
       </c>
       <c r="AC2" t="n">
-        <v>749.6477834774311</v>
+        <v>884.5682657443002</v>
       </c>
       <c r="AD2" t="n">
-        <v>605697.2735524615</v>
+        <v>714709.7592245227</v>
       </c>
       <c r="AE2" t="n">
-        <v>828741.7311522806</v>
+        <v>977897.4233402397</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.84864779863942e-07</v>
+        <v>1.730368567495988e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.70138888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>749647.783477431</v>
+        <v>884568.2657443002</v>
       </c>
     </row>
     <row r="3">
@@ -19260,28 +19260,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>470.6690379753801</v>
+        <v>559.775820361046</v>
       </c>
       <c r="AB3" t="n">
-        <v>643.99014221039</v>
+        <v>765.9099729842527</v>
       </c>
       <c r="AC3" t="n">
-        <v>582.5286268836708</v>
+        <v>692.8126001240335</v>
       </c>
       <c r="AD3" t="n">
-        <v>470669.0379753801</v>
+        <v>559775.820361046</v>
       </c>
       <c r="AE3" t="n">
-        <v>643990.14221039</v>
+        <v>765909.9729842527</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.178199024346282e-06</v>
+        <v>2.070049208445543e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.14236111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>582528.6268836708</v>
+        <v>692812.6001240334</v>
       </c>
     </row>
     <row r="4">
@@ -19366,28 +19366,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>424.5580307333371</v>
+        <v>503.8399280033873</v>
       </c>
       <c r="AB4" t="n">
-        <v>580.899027827759</v>
+        <v>689.3760173430961</v>
       </c>
       <c r="AC4" t="n">
-        <v>525.4588399087831</v>
+        <v>623.5829377931873</v>
       </c>
       <c r="AD4" t="n">
-        <v>424558.0307333372</v>
+        <v>503839.9280033873</v>
       </c>
       <c r="AE4" t="n">
-        <v>580899.027827759</v>
+        <v>689376.0173430961</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.249422247227654e-06</v>
+        <v>2.19518560145039e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.10069444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>525458.8399087831</v>
+        <v>623582.9377931873</v>
       </c>
     </row>
     <row r="5">
@@ -19472,28 +19472,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>390.2695476607879</v>
+        <v>479.3762405379027</v>
       </c>
       <c r="AB5" t="n">
-        <v>533.9840125867851</v>
+        <v>655.9037208910996</v>
       </c>
       <c r="AC5" t="n">
-        <v>483.0213278767702</v>
+        <v>593.3051903359061</v>
       </c>
       <c r="AD5" t="n">
-        <v>390269.5476607878</v>
+        <v>479376.2405379027</v>
       </c>
       <c r="AE5" t="n">
-        <v>533984.012586785</v>
+        <v>655903.7208910997</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.28563702802907e-06</v>
+        <v>2.258813542725927e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.62326388888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>483021.3278767702</v>
+        <v>593305.1903359061</v>
       </c>
     </row>
     <row r="6">
@@ -19578,28 +19578,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>387.5924737029378</v>
+        <v>476.6991665800527</v>
       </c>
       <c r="AB6" t="n">
-        <v>530.3211218934871</v>
+        <v>652.2408301978014</v>
       </c>
       <c r="AC6" t="n">
-        <v>479.7080183303412</v>
+        <v>589.9918807894771</v>
       </c>
       <c r="AD6" t="n">
-        <v>387592.4737029378</v>
+        <v>476699.1665800527</v>
       </c>
       <c r="AE6" t="n">
-        <v>530321.1218934871</v>
+        <v>652240.8301978015</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.290733193648304e-06</v>
+        <v>2.267767304686523e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.55381944444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>479708.0183303412</v>
+        <v>589991.8807894771</v>
       </c>
     </row>
   </sheetData>
@@ -19875,28 +19875,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>772.0858597043352</v>
+        <v>895.0954896273013</v>
       </c>
       <c r="AB2" t="n">
-        <v>1056.401935271625</v>
+        <v>1224.709137734095</v>
       </c>
       <c r="AC2" t="n">
-        <v>955.5804172387288</v>
+        <v>1107.824616518823</v>
       </c>
       <c r="AD2" t="n">
-        <v>772085.8597043352</v>
+        <v>895095.4896273012</v>
       </c>
       <c r="AE2" t="n">
-        <v>1056401.935271625</v>
+        <v>1224709.137734095</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.494782379353279e-07</v>
+        <v>1.452513118979632e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.24479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>955580.4172387288</v>
+        <v>1107824.616518823</v>
       </c>
     </row>
     <row r="3">
@@ -19981,28 +19981,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>562.7216032119878</v>
+        <v>665.1300787355514</v>
       </c>
       <c r="AB3" t="n">
-        <v>769.9405230396789</v>
+        <v>910.0603171940979</v>
       </c>
       <c r="AC3" t="n">
-        <v>696.4584801390821</v>
+        <v>823.2054377987697</v>
       </c>
       <c r="AD3" t="n">
-        <v>562721.6032119879</v>
+        <v>665130.0787355513</v>
       </c>
       <c r="AE3" t="n">
-        <v>769940.5230396788</v>
+        <v>910060.3171940979</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.064202384933196e-06</v>
+        <v>1.819667480972667e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.34895833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>696458.4801390821</v>
+        <v>823205.4377987697</v>
       </c>
     </row>
     <row r="4">
@@ -20087,28 +20087,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>495.4010010606086</v>
+        <v>597.8093870756209</v>
       </c>
       <c r="AB4" t="n">
-        <v>677.8295052008049</v>
+        <v>817.9491768856756</v>
       </c>
       <c r="AC4" t="n">
-        <v>613.1384085641249</v>
+        <v>739.885255442586</v>
       </c>
       <c r="AD4" t="n">
-        <v>495401.0010606085</v>
+        <v>597809.3870756208</v>
       </c>
       <c r="AE4" t="n">
-        <v>677829.5052008049</v>
+        <v>817949.1768856755</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.147615278629417e-06</v>
+        <v>1.962294233460516e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.94270833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>613138.408564125</v>
+        <v>739885.2554425859</v>
       </c>
     </row>
     <row r="5">
@@ -20193,28 +20193,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>471.0111460045172</v>
+        <v>563.161714755665</v>
       </c>
       <c r="AB5" t="n">
-        <v>644.4582295085963</v>
+        <v>770.5427030700888</v>
       </c>
       <c r="AC5" t="n">
-        <v>582.9520405871011</v>
+        <v>697.0031889525548</v>
       </c>
       <c r="AD5" t="n">
-        <v>471011.1460045172</v>
+        <v>563161.714755665</v>
       </c>
       <c r="AE5" t="n">
-        <v>644458.2295085964</v>
+        <v>770542.7030700888</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.188515116152821e-06</v>
+        <v>2.032228397649666e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.32638888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>582952.0405871011</v>
+        <v>697003.1889525547</v>
       </c>
     </row>
     <row r="6">
@@ -20299,28 +20299,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>438.9897990693066</v>
+        <v>531.225619166475</v>
       </c>
       <c r="AB6" t="n">
-        <v>600.6452099497166</v>
+        <v>726.8463281638583</v>
       </c>
       <c r="AC6" t="n">
-        <v>543.3204741229615</v>
+        <v>657.4771347391275</v>
       </c>
       <c r="AD6" t="n">
-        <v>438989.7990693066</v>
+        <v>531225.619166475</v>
       </c>
       <c r="AE6" t="n">
-        <v>600645.2099497166</v>
+        <v>726846.3281638583</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.220067775031084e-06</v>
+        <v>2.086179928027606e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.875</v>
       </c>
       <c r="AH6" t="n">
-        <v>543320.4741229615</v>
+        <v>657477.1347391275</v>
       </c>
     </row>
     <row r="7">
@@ -20405,28 +20405,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>422.5331652300248</v>
+        <v>514.7689853271933</v>
       </c>
       <c r="AB7" t="n">
-        <v>578.1285175153658</v>
+        <v>704.3296357295076</v>
       </c>
       <c r="AC7" t="n">
-        <v>522.952743212169</v>
+        <v>637.109403828335</v>
       </c>
       <c r="AD7" t="n">
-        <v>422533.1652300248</v>
+        <v>514768.9853271932</v>
       </c>
       <c r="AE7" t="n">
-        <v>578128.5175153658</v>
+        <v>704329.6357295075</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.236698161402259e-06</v>
+        <v>2.114616035392219e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.64930555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>522952.743212169</v>
+        <v>637109.403828335</v>
       </c>
     </row>
     <row r="8">
@@ -20511,28 +20511,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>421.6654214502632</v>
+        <v>513.9012415474316</v>
       </c>
       <c r="AB8" t="n">
-        <v>576.9412321937422</v>
+        <v>703.142350407884</v>
       </c>
       <c r="AC8" t="n">
-        <v>521.8787707352758</v>
+        <v>636.0354313514416</v>
       </c>
       <c r="AD8" t="n">
-        <v>421665.4214502632</v>
+        <v>513901.2415474316</v>
       </c>
       <c r="AE8" t="n">
-        <v>576941.2321937422</v>
+        <v>703142.350407884</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.239568741646071e-06</v>
+        <v>2.119524407704799e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.61458333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>521878.7707352758</v>
+        <v>636035.4313514417</v>
       </c>
     </row>
   </sheetData>
@@ -20808,28 +20808,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>281.1967193005303</v>
+        <v>362.5760039680029</v>
       </c>
       <c r="AB2" t="n">
-        <v>384.7457568707043</v>
+        <v>496.092484353396</v>
       </c>
       <c r="AC2" t="n">
-        <v>348.0261618290248</v>
+        <v>448.7461139168818</v>
       </c>
       <c r="AD2" t="n">
-        <v>281196.7193005303</v>
+        <v>362576.0039680029</v>
       </c>
       <c r="AE2" t="n">
-        <v>384745.7568707043</v>
+        <v>496092.484353396</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.347227030114053e-06</v>
+        <v>2.887728045453853e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.64409722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>348026.1618290248</v>
+        <v>448746.1139168818</v>
       </c>
     </row>
   </sheetData>
@@ -21105,28 +21105,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>429.9324088868733</v>
+        <v>523.6295077830956</v>
       </c>
       <c r="AB2" t="n">
-        <v>588.2524891182577</v>
+        <v>716.4529934523357</v>
       </c>
       <c r="AC2" t="n">
-        <v>532.1104971743642</v>
+        <v>648.0757253053358</v>
       </c>
       <c r="AD2" t="n">
-        <v>429932.4088868733</v>
+        <v>523629.5077830956</v>
       </c>
       <c r="AE2" t="n">
-        <v>588252.4891182577</v>
+        <v>716452.9934523357</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.196529889078273e-06</v>
+        <v>2.204525596862223e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.95833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>532110.4971743643</v>
+        <v>648075.7253053358</v>
       </c>
     </row>
     <row r="3">
@@ -21211,28 +21211,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>347.563956445131</v>
+        <v>431.8828113662739</v>
       </c>
       <c r="AB3" t="n">
-        <v>475.5523386478076</v>
+        <v>590.9211158362582</v>
       </c>
       <c r="AC3" t="n">
-        <v>430.1662908891593</v>
+        <v>534.5244339038398</v>
       </c>
       <c r="AD3" t="n">
-        <v>347563.956445131</v>
+        <v>431882.8113662739</v>
       </c>
       <c r="AE3" t="n">
-        <v>475552.3386478076</v>
+        <v>590921.1158362582</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.35395084293124e-06</v>
+        <v>2.494563083948038e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.75347222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>430166.2908891593</v>
+        <v>534524.4339038399</v>
       </c>
     </row>
     <row r="4">
@@ -21317,28 +21317,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>342.968145803534</v>
+        <v>427.2870007246769</v>
       </c>
       <c r="AB4" t="n">
-        <v>469.2641477751188</v>
+        <v>584.6329249635693</v>
       </c>
       <c r="AC4" t="n">
-        <v>424.4782361278286</v>
+        <v>528.8363791425091</v>
       </c>
       <c r="AD4" t="n">
-        <v>342968.145803534</v>
+        <v>427287.0007246769</v>
       </c>
       <c r="AE4" t="n">
-        <v>469264.1477751188</v>
+        <v>584632.9249635693</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.363487548019428e-06</v>
+        <v>2.512133819680208e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.63194444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>424478.2361278286</v>
+        <v>528836.3791425092</v>
       </c>
     </row>
   </sheetData>
@@ -21614,28 +21614,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>536.3846256766166</v>
+        <v>643.1506914719711</v>
       </c>
       <c r="AB2" t="n">
-        <v>733.905108470338</v>
+        <v>879.9871498779365</v>
       </c>
       <c r="AC2" t="n">
-        <v>663.8622349602172</v>
+        <v>796.0024113633074</v>
       </c>
       <c r="AD2" t="n">
-        <v>536384.6256766166</v>
+        <v>643150.6914719711</v>
       </c>
       <c r="AE2" t="n">
-        <v>733905.1084703379</v>
+        <v>879987.1498779366</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.059957384505994e-06</v>
+        <v>1.893536513552555e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.59895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>663862.2349602171</v>
+        <v>796002.4113633074</v>
       </c>
     </row>
     <row r="3">
@@ -21720,28 +21720,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>420.9418078052178</v>
+        <v>508.3656859733391</v>
       </c>
       <c r="AB3" t="n">
-        <v>575.9511520810102</v>
+        <v>695.5683590599343</v>
       </c>
       <c r="AC3" t="n">
-        <v>520.9831824789167</v>
+        <v>629.1842911075768</v>
       </c>
       <c r="AD3" t="n">
-        <v>420941.8078052178</v>
+        <v>508365.6859733391</v>
       </c>
       <c r="AE3" t="n">
-        <v>575951.1520810102</v>
+        <v>695568.3590599343</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.24130427991381e-06</v>
+        <v>2.217499507814003e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.59548611111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>520983.1824789167</v>
+        <v>629184.2911075768</v>
       </c>
     </row>
     <row r="4">
@@ -21826,28 +21826,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>377.5635718139046</v>
+        <v>464.9021091274543</v>
       </c>
       <c r="AB4" t="n">
-        <v>516.5991358849866</v>
+        <v>636.0995757417131</v>
       </c>
       <c r="AC4" t="n">
-        <v>467.2956394075636</v>
+        <v>575.3911250042848</v>
       </c>
       <c r="AD4" t="n">
-        <v>377563.5718139046</v>
+        <v>464902.1091274543</v>
       </c>
       <c r="AE4" t="n">
-        <v>516599.1358849866</v>
+        <v>636099.5757417132</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.306256101795205e-06</v>
+        <v>2.333531197532835e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.71875</v>
       </c>
       <c r="AH4" t="n">
-        <v>467295.6394075636</v>
+        <v>575391.1250042849</v>
       </c>
     </row>
     <row r="5">
@@ -21932,28 +21932,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>369.8421173141049</v>
+        <v>457.1806546276547</v>
       </c>
       <c r="AB5" t="n">
-        <v>506.0343011918299</v>
+        <v>625.5347410485563</v>
       </c>
       <c r="AC5" t="n">
-        <v>457.7390977096831</v>
+        <v>565.8345833064044</v>
       </c>
       <c r="AD5" t="n">
-        <v>369842.1173141049</v>
+        <v>457180.6546276547</v>
       </c>
       <c r="AE5" t="n">
-        <v>506034.3011918298</v>
+        <v>625534.7410485563</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.319362182043155e-06</v>
+        <v>2.356944253436596e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.55381944444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>457739.0977096831</v>
+        <v>565834.5833064044</v>
       </c>
     </row>
   </sheetData>
